--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaese\Desktop\AL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB08E4C-0F65-46CC-83C6-FADF40C992EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4096D8D-302C-443D-B214-EABFBDAF7806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="23880" windowHeight="19395" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1785" windowWidth="17310" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wk_ac" sheetId="1" r:id="rId1"/>
@@ -4063,6 +4063,36 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2" t="s">
         <v>24</v>
       </c>
@@ -4101,6 +4131,21 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
@@ -12224,7 +12269,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DQ122"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12399,17 +12446,39 @@
       <c r="DQ1" s="2"/>
     </row>
     <row r="2" spans="1:121" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
@@ -12544,12 +12613,24 @@
       <c r="DQ2" s="2"/>
     </row>
     <row r="3" spans="1:121" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
